--- a/data/mumbai_air_quality_data.xlsx
+++ b/data/mumbai_air_quality_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S19"/>
+  <dimension ref="A1:AA20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,40 +491,80 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
+          <t>AQI.1</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>PM2.5.1</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>PM10.1</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>O3.1</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>NO2.1</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>SO2.1</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>CO.1</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Collection Time.1</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
           <t>AQI</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>PM2.5</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>PM10</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>O3</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>NO2</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>SO2</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>CO</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>Collection Time</t>
         </is>
@@ -568,36 +608,54 @@
           <t>2024-08-28 23:00:00</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>94</t>
-        </is>
+      <c r="L2" t="n">
+        <v>94</v>
       </c>
       <c r="M2" t="n">
         <v>94</v>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+      <c r="N2" t="inlineStr"/>
       <c r="O2" t="n">
         <v>2.7</v>
       </c>
       <c r="P2" t="n">
         <v>2.6</v>
       </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+      <c r="Q2" t="inlineStr"/>
       <c r="R2" t="n">
         <v>0.4</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
           <t>2024-08-28 23:00:00</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="U2" t="n">
+        <v>47</v>
+      </c>
+      <c r="V2" t="n">
+        <v>34</v>
+      </c>
+      <c r="W2" t="n">
+        <v>3</v>
+      </c>
+      <c r="X2" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>2024-09-29 17:00:00</t>
         </is>
       </c>
     </row>
@@ -637,42 +695,48 @@
           <t>2024-08-28 23:00:00</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+      <c r="L3" t="n">
+        <v>45</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
       <c r="N3" t="n">
         <v>45</v>
       </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
       <c r="S3" t="inlineStr">
         <is>
           <t>2024-08-28 23:00:00</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="U3" t="n">
+        <v>39</v>
+      </c>
+      <c r="V3" t="n">
+        <v>37</v>
+      </c>
+      <c r="W3" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="X3" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>2024-09-29 16:00:00</t>
         </is>
       </c>
     </row>
@@ -714,10 +778,8 @@
           <t>2024-08-28 23:00:00</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>46</t>
-        </is>
+      <c r="L4" t="n">
+        <v>46</v>
       </c>
       <c r="M4" t="n">
         <v>46</v>
@@ -740,6 +802,38 @@
       <c r="S4" t="inlineStr">
         <is>
           <t>2024-08-28 23:00:00</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="U4" t="n">
+        <v>47</v>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W4" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="X4" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Z4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>2024-09-28 00:00:00</t>
         </is>
       </c>
     </row>
@@ -781,10 +875,8 @@
           <t>2024-08-28 23:00:00</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>52</t>
-        </is>
+      <c r="L5" t="n">
+        <v>52</v>
       </c>
       <c r="M5" t="n">
         <v>52</v>
@@ -801,14 +893,40 @@
       <c r="Q5" t="n">
         <v>16.2</v>
       </c>
-      <c r="R5" t="inlineStr">
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>2024-08-28 23:00:00</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>2024-08-28 23:00:00</t>
+      <c r="V5" t="n">
+        <v>9</v>
+      </c>
+      <c r="W5" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="X5" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>2024-09-29 17:00:00</t>
         </is>
       </c>
     </row>
@@ -850,10 +968,8 @@
           <t>2024-08-28 23:00:00</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
+      <c r="L6" t="n">
+        <v>51</v>
       </c>
       <c r="M6" t="n">
         <v>51</v>
@@ -876,6 +992,36 @@
       <c r="S6" t="inlineStr">
         <is>
           <t>2024-08-28 23:00:00</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="U6" t="n">
+        <v>12</v>
+      </c>
+      <c r="V6" t="n">
+        <v>3</v>
+      </c>
+      <c r="W6" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="X6" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>2024-09-29 16:00:00</t>
         </is>
       </c>
     </row>
@@ -913,10 +1059,8 @@
           <t>2024-08-28 23:00:00</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>41</t>
-        </is>
+      <c r="L7" t="n">
+        <v>41</v>
       </c>
       <c r="M7" t="n">
         <v>41</v>
@@ -939,6 +1083,44 @@
       <c r="S7" t="inlineStr">
         <is>
           <t>2024-08-28 23:00:00</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="U7" t="n">
+        <v>9</v>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>2024-09-29 16:00:00</t>
         </is>
       </c>
     </row>
@@ -980,10 +1162,8 @@
           <t>2024-08-28 17:00:00</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
+      <c r="L8" t="n">
+        <v>42</v>
       </c>
       <c r="M8" t="n">
         <v>42</v>
@@ -1006,6 +1186,34 @@
       <c r="S8" t="inlineStr">
         <is>
           <t>2024-08-28 23:00:00</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="U8" t="n">
+        <v>74</v>
+      </c>
+      <c r="V8" t="n">
+        <v>53</v>
+      </c>
+      <c r="W8" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="X8" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>2024-09-29 17:00:00</t>
         </is>
       </c>
     </row>
@@ -1037,10 +1245,8 @@
           <t>2024-08-28 23:00:00</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
+      <c r="L9" t="n">
+        <v>36</v>
       </c>
       <c r="M9" t="n">
         <v>36</v>
@@ -1063,6 +1269,34 @@
       <c r="S9" t="inlineStr">
         <is>
           <t>2024-08-28 23:00:00</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="U9" t="n">
+        <v>13</v>
+      </c>
+      <c r="V9" t="n">
+        <v>23</v>
+      </c>
+      <c r="W9" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="X9" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>2024-09-29 17:00:00</t>
         </is>
       </c>
     </row>
@@ -1104,10 +1338,8 @@
           <t>2024-08-28 23:00:00</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>85</t>
-        </is>
+      <c r="L10" t="n">
+        <v>85</v>
       </c>
       <c r="M10" t="n">
         <v>85</v>
@@ -1130,6 +1362,34 @@
       <c r="S10" t="inlineStr">
         <is>
           <t>2024-08-28 23:00:00</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="U10" t="n">
+        <v>64</v>
+      </c>
+      <c r="V10" t="n">
+        <v>10</v>
+      </c>
+      <c r="W10" t="n">
+        <v>36.2</v>
+      </c>
+      <c r="X10" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>2024-09-25 16:00:00</t>
         </is>
       </c>
     </row>
@@ -1171,21 +1431,11 @@
           <t>2024-08-28 23:00:00</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+      <c r="L11" t="n">
+        <v>3</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
       <c r="O11" t="n">
         <v>2.9</v>
       </c>
@@ -1201,6 +1451,36 @@
       <c r="S11" t="inlineStr">
         <is>
           <t>2024-08-28 23:00:00</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="U11" t="n">
+        <v>13</v>
+      </c>
+      <c r="V11" t="n">
+        <v>12</v>
+      </c>
+      <c r="W11" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="X11" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>2024-09-29 17:00:00</t>
         </is>
       </c>
     </row>
@@ -1242,10 +1522,8 @@
           <t>2024-08-28 23:00:00</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>66</t>
-        </is>
+      <c r="L12" t="n">
+        <v>66</v>
       </c>
       <c r="M12" t="n">
         <v>66</v>
@@ -1268,6 +1546,34 @@
       <c r="S12" t="inlineStr">
         <is>
           <t>2024-08-28 23:00:00</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="U12" t="n">
+        <v>28</v>
+      </c>
+      <c r="V12" t="n">
+        <v>12</v>
+      </c>
+      <c r="W12" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="X12" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>2024-09-29 17:00:00</t>
         </is>
       </c>
     </row>
@@ -1309,10 +1615,8 @@
           <t>2024-08-28 23:00:00</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>53</t>
-        </is>
+      <c r="L13" t="n">
+        <v>53</v>
       </c>
       <c r="M13" t="n">
         <v>53</v>
@@ -1335,6 +1639,34 @@
       <c r="S13" t="inlineStr">
         <is>
           <t>2024-08-28 23:00:00</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="U13" t="n">
+        <v>27</v>
+      </c>
+      <c r="V13" t="n">
+        <v>40</v>
+      </c>
+      <c r="W13" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="X13" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>2024-09-29 16:00:00</t>
         </is>
       </c>
     </row>
@@ -1372,10 +1704,8 @@
           <t>2024-08-28 23:00:00</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>54</t>
-        </is>
+      <c r="L14" t="n">
+        <v>54</v>
       </c>
       <c r="M14" t="n">
         <v>54</v>
@@ -1398,6 +1728,34 @@
       <c r="S14" t="inlineStr">
         <is>
           <t>2024-08-28 17:00:00</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="U14" t="n">
+        <v>35</v>
+      </c>
+      <c r="V14" t="n">
+        <v>45</v>
+      </c>
+      <c r="W14" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="X14" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>2024-09-29 17:00:00</t>
         </is>
       </c>
     </row>
@@ -1439,10 +1797,8 @@
           <t>2024-08-28 23:00:00</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
+      <c r="L15" t="n">
+        <v>42</v>
       </c>
       <c r="M15" t="n">
         <v>42</v>
@@ -1465,6 +1821,40 @@
       <c r="S15" t="inlineStr">
         <is>
           <t>2024-08-28 23:00:00</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W15" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="X15" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Z15" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>2024-09-29 17:00:00</t>
         </is>
       </c>
     </row>
@@ -1506,10 +1896,8 @@
           <t>2024-08-28 23:00:00</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
+      <c r="L16" t="n">
+        <v>60</v>
       </c>
       <c r="M16" t="n">
         <v>60</v>
@@ -1532,6 +1920,34 @@
       <c r="S16" t="inlineStr">
         <is>
           <t>2024-08-28 23:00:00</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="U16" t="n">
+        <v>28</v>
+      </c>
+      <c r="V16" t="n">
+        <v>26</v>
+      </c>
+      <c r="W16" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="X16" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>2024-09-29 16:00:00</t>
         </is>
       </c>
     </row>
@@ -1563,42 +1979,48 @@
           <t>2024-08-28 23:00:00</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
+      <c r="L17" t="n">
+        <v>30</v>
       </c>
       <c r="M17" t="n">
         <v>30</v>
       </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="R17" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="inlineStr"/>
+      <c r="P17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr"/>
       <c r="S17" t="inlineStr">
         <is>
           <t>2024-08-28 23:00:00</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="U17" t="n">
+        <v>68</v>
+      </c>
+      <c r="V17" t="n">
+        <v>29</v>
+      </c>
+      <c r="W17" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="X17" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>2024-09-29 17:00:00</t>
         </is>
       </c>
     </row>
@@ -1638,10 +2060,8 @@
           <t>2024-08-28 23:00:00</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
+      <c r="L18" t="n">
+        <v>50</v>
       </c>
       <c r="M18" t="n">
         <v>50</v>
@@ -1664,6 +2084,36 @@
       <c r="S18" t="inlineStr">
         <is>
           <t>2024-08-28 23:00:00</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="U18" t="n">
+        <v>61</v>
+      </c>
+      <c r="V18" t="n">
+        <v>22</v>
+      </c>
+      <c r="W18" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="X18" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Z18" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AA18" t="inlineStr">
+        <is>
+          <t>2024-09-29 16:00:00</t>
         </is>
       </c>
     </row>
@@ -1705,16 +2155,10 @@
           <t>2024-08-28 23:00:00</t>
         </is>
       </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+      <c r="L19" t="n">
+        <v>35</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
       <c r="N19" t="n">
         <v>35</v>
       </c>
@@ -1733,6 +2177,83 @@
       <c r="S19" t="inlineStr">
         <is>
           <t>2024-08-28 23:00:00</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="U19" t="n">
+        <v>12</v>
+      </c>
+      <c r="V19" t="n">
+        <v>16</v>
+      </c>
+      <c r="W19" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="X19" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>7</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AA19" t="inlineStr">
+        <is>
+          <t>2024-09-29 16:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr"/>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr"/>
+      <c r="S20" t="inlineStr"/>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="U20" t="n">
+        <v>13</v>
+      </c>
+      <c r="V20" t="n">
+        <v>13</v>
+      </c>
+      <c r="W20" t="n">
+        <v>1</v>
+      </c>
+      <c r="X20" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AA20" t="inlineStr">
+        <is>
+          <t>2024-09-29 17:00:00</t>
         </is>
       </c>
     </row>
